--- a/10_Management/Exam_PMP_TangToc_17122018.xlsx
+++ b/10_Management/Exam_PMP_TangToc_17122018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFF84F9-02E4-49E8-97C4-4009BEEC11E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E2C1A6-5F55-47D8-92E2-6AB474E9D801}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="3" activeTab="9" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" activeTab="2" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="294">
   <si>
     <t>No</t>
   </si>
@@ -639,16 +639,7 @@
 Mục đích là kinh nghiệm của việc handle unknow risk là cứ phải include một khoản budget cho nó và thông báo cho manager biết về vấn đề đấy</t>
   </si>
   <si>
-    <t xml:space="preserve">Note: chỉ có function managemer mới có quyền allocate resource, PM không có quyền assign resource </t>
-  </si>
-  <si>
     <t>Việc estimate three-point là chỉ ra việc estimate không chắc chắn</t>
-  </si>
-  <si>
-    <t>Lưu ý monte carlo hay sử dụng cho simulation, estimate three point, tính xác suất</t>
-  </si>
-  <si>
-    <t>ước tính trung bình dùng beta distribution</t>
   </si>
   <si>
     <t>Start and finish dates for each activity are outputs of the Develop Schedule process</t>
@@ -884,12 +875,182 @@
   <si>
     <t>Hiểu nhầm đề</t>
   </si>
+  <si>
+    <t>Initiating</t>
+  </si>
+  <si>
+    <t>lưu ý nếu là PM của công ty đối thủ thì sẽ không có lời khuyên còn nếu cùng công ty và các dự án tương tự thì đc coi là analogous to expert judgment</t>
+  </si>
+  <si>
+    <t>chỉ cần các stakeholder ở mức supportive là ok, nếu là leading thì có thể serious hoặc conflict ngay</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>chuyển trạng thái của các stakeholder thông qua việc analysis, expectation và engagement của stakeholders</t>
+  </si>
+  <si>
+    <t>identify key deliverable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop the stakeholder management plan bằng việc phân tích need, interest, potential impact, </t>
+  </si>
+  <si>
+    <t>Exe</t>
+  </si>
+  <si>
+    <t>manage stakeholder engagement sang vị trí expectation</t>
+  </si>
+  <si>
+    <t>Note: chỉ có function managemer mới có quyền allocate resource, PM không có quyền assign resource</t>
+  </si>
+  <si>
+    <t>Chưa hiểu chưa rõ câu hỏi</t>
+  </si>
+  <si>
+    <t>- Nghiên cứ thêm về schedule model
+- Post lên nhóm hỏi
+A project manager can rarely direct that project resources be assigned. Most frequently on projects, the functional manager has control over allocating the resources</t>
+  </si>
+  <si>
+    <t>Cần hiểu rõ hơn về giải thích</t>
+  </si>
+  <si>
+    <t>It indicates the degree of uncertainty in the estimate.</t>
+  </si>
+  <si>
+    <t>Cần đọc lại về develop Scope</t>
+  </si>
+  <si>
+    <t>Đoán đúng</t>
+  </si>
+  <si>
+    <t>A heuristic is a generally accepted rule. Examples are cost per line of code and cost per square foot of floor space.</t>
+  </si>
+  <si>
+    <t>Câu dài quá</t>
+  </si>
+  <si>
+    <t>Cần nghiên cứu thêm giải thích</t>
+  </si>
+  <si>
+    <t>Đọc không kỹ câu hỏi</t>
+  </si>
+  <si>
+    <t>Cần  đọc lại Develop Schedule</t>
+  </si>
+  <si>
+    <t>đọc lại phần schedule: schedule compression, Schedule compression is done as part of the Develop Schedule process,</t>
+  </si>
+  <si>
+    <t>Đọc lại Develop Schedule process</t>
+  </si>
+  <si>
+    <t>xem lại phần montecarlo cho những phần nào? simulation -&gt; monte carlo</t>
+  </si>
+  <si>
+    <t>Similation --&gt; Monte Caclo</t>
+  </si>
+  <si>
+    <t>The schedule management plan is the most correct answer. It includes plans for how schedule changes will be managed.</t>
+  </si>
+  <si>
+    <t>Lưu ý monte carlo hay sử dụng cho simulation, estimate three point, tính xác suất, compute</t>
+  </si>
+  <si>
+    <t>Criteria for developing and controlling the project schedule are included in the schedule management plan.</t>
+  </si>
+  <si>
+    <t>ước tính trung bình dùng beta distribution-. không nói gì là beta</t>
+  </si>
+  <si>
+    <t>Không đọc kỹ câu trả lời</t>
+  </si>
+  <si>
+    <t>Dựa vào basis của estimate để cung cấp cho sponsor biết</t>
+  </si>
+  <si>
+    <t>Bài tập tình huống</t>
+  </si>
+  <si>
+    <t>Note for future</t>
+  </si>
+  <si>
+    <t>Lẩy resource từ functional manager</t>
+  </si>
+  <si>
+    <t>Note for futrue: When the project manager completes the detailed project schedule model, it is most important to get it approved by the:</t>
+  </si>
+  <si>
+    <t>Dùng loại trừ</t>
+  </si>
+  <si>
+    <t>Consensus is not a result of voting. Rather, it is achieved through facilitated sessions wherein everyone agrees to accept the decision supported by the group as a whole.</t>
+  </si>
+  <si>
+    <t>Không hiểu rõ toàn bộ câu hỏi</t>
+  </si>
+  <si>
+    <t>Sequencing the activities is the same thing as create a network diagram, so that has already been done.</t>
+  </si>
+  <si>
+    <t>tìm hiểu compression schedule</t>
+  </si>
+  <si>
+    <t>Muốn delay thì phải dùng float</t>
+  </si>
+  <si>
+    <t>lưu ý: Gain = đạt được</t>
+  </si>
+  <si>
+    <t>Cần đọc lại resource leveling: mục đích sử dụng resource hiệu quả hơn, không thêm resource, cost mà chủ yếu là tăng schedule. sử dụng tối ưu nguồn lực</t>
+  </si>
+  <si>
+    <t>Hiểu sai</t>
+  </si>
+  <si>
+    <t>Fastrack + Crash sử dụng compress schedule, perform resource optimization: leveling + smoothing</t>
+  </si>
+  <si>
+    <t>Công thức: SV=(P-O)/6</t>
+  </si>
+  <si>
+    <t>chưa hiểu rõ công thức</t>
+  </si>
+  <si>
+    <t>Standard Variation - (P-O)/6</t>
+  </si>
+  <si>
+    <t>Overthinking (+1)</t>
+  </si>
+  <si>
+    <t>Duration = EF-ES or LF-LS</t>
+  </si>
+  <si>
+    <t>Cần đọc lại Monte carlo</t>
+  </si>
+  <si>
+    <t>Validate Scope and Control Schedule occur later in the project. không có network diagram, không thể build a schedult</t>
+  </si>
+  <si>
+    <t>note: PM cần được involved luôn trong project charter. Được assign trong initiating</t>
+  </si>
+  <si>
+    <t>lưu ý: type of organization ảnh hưởng trực tiếp đến sự thành công của dự án, việc tổ chức phân cấp thì có vẻ không hiệu quả</t>
+  </si>
+  <si>
+    <t>Note lại để hỏi thêm</t>
+  </si>
+  <si>
+    <t>Lưu ý: manufacturing a product là ongoing process, not project</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,6 +1097,18 @@
       <color rgb="FF000000"/>
       <name val="Arial-BoldMT"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -957,7 +1130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1127,12 +1300,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1211,6 +1410,91 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1527,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1541,266 +1825,357 @@
     <col min="6" max="6" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="26.25">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="30" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="16" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="33">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="F16" s="16"/>
+      <c r="F11" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="16"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="16"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="16"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="16"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="16"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="16"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="16"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="6:6">
-      <c r="F24" s="16"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="6:6">
-      <c r="F25" s="16"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="6:6">
-      <c r="F26" s="16"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="6:6">
-      <c r="F27" s="16"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="6:6">
-      <c r="F28" s="16"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="6:6">
-      <c r="F29" s="16"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="6:6">
-      <c r="F30" s="16"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="6:6">
-      <c r="F31" s="16"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="6:6">
-      <c r="F32" s="16"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="16"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="6:6">
-      <c r="F34" s="16"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="6:6">
-      <c r="F35" s="16"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="6:6">
-      <c r="F36" s="16"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="6:6">
-      <c r="F37" s="16"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="6:6">
-      <c r="F38" s="16"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="6:6">
-      <c r="F39" s="16"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="6:6">
-      <c r="F40" s="16"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="6:6">
-      <c r="F41" s="16"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="6:6">
-      <c r="F42" s="16"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="16"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="6:6">
-      <c r="F44" s="16"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="16"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="6:6">
-      <c r="F46" s="16"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="6:6">
-      <c r="F47" s="16"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="6:6">
-      <c r="F48" s="16"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="6:6">
-      <c r="F49" s="16"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="6:6">
-      <c r="F50" s="16"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="16"/>
+      <c r="F51" s="30"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="30"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1820,7 +2195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1829,7 +2206,7 @@
         <v>126</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1846,7 +2223,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1863,7 +2240,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1880,7 +2257,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -1897,7 +2274,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -1914,7 +2291,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -1931,7 +2308,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -1948,7 +2325,7 @@
         <v>140</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -1963,7 +2340,7 @@
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
       <c r="B9" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2224,6 +2601,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -2231,12 +2614,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2545,7 +2922,7 @@
         <v>126</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2562,7 +2939,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -2579,7 +2956,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -2596,7 +2973,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -2613,7 +2990,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -2630,7 +3007,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -2647,7 +3024,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -2662,7 +3039,7 @@
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -3186,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3444,35 +3821,49 @@
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>293</v>
+      </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="45">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>291</v>
+      </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="30">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4833,10 +5224,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4849,7 +5240,7 @@
     <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5">
+    <row r="1" spans="1:10" ht="26.25" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4866,494 +5257,989 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135">
+    <row r="2" spans="1:10" ht="370.5" thickBot="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43">
+        <v>1</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="46">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="30">
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="49">
+        <v>3</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:10" ht="90" thickBot="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="46">
+        <v>4</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51.75" thickBot="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="49">
+        <v>5</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="204.75" thickBot="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="45">
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="46">
+        <v>6</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45.75" thickBot="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="53" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="93" customHeight="1">
+      <c r="F8" s="36"/>
+      <c r="G8" s="49">
+        <v>7</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:10" ht="93" customHeight="1" thickBot="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="46">
+        <v>8</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39" thickBot="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="49">
+        <v>9</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:10" ht="29.25" thickBot="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="C11" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="46">
+        <v>10</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:10" ht="51.75" thickBot="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="49">
+        <v>11</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="157.5" thickBot="1">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="46">
+        <v>12</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="49">
+        <v>13</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="46">
+        <v>14</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+    </row>
+    <row r="16" spans="1:10" ht="86.25" thickBot="1">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="C16" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="49">
+        <v>15</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="46">
+        <v>16</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="49">
+        <v>17</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="46">
+        <v>18</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="49">
+        <v>19</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" ht="192" thickBot="1">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="45">
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="46">
+        <v>20</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="C22" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="49">
+        <v>21</v>
+      </c>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="46">
+        <v>22</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" spans="1:10" ht="179.25" thickBot="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="49">
+        <v>23</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="51.75" thickBot="1">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="C25" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="46">
+        <v>24</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" ht="30">
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="49">
+        <v>25</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="1:10" ht="51.75" thickBot="1">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="C27" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="46">
+        <v>26</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J27" s="38"/>
+    </row>
+    <row r="28" spans="1:10" ht="39" thickBot="1">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="C28" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="49">
+        <v>27</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="204.75" thickBot="1">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="C29" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="46">
+        <v>28</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="255.75" thickBot="1">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="49">
+        <v>29</v>
+      </c>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="46">
+        <v>30</v>
+      </c>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" ht="179.25" thickBot="1">
       <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="C32" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="49">
+        <v>31</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="46">
+        <v>32</v>
+      </c>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+    </row>
+    <row r="34" spans="1:10" ht="39" thickBot="1">
       <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="C34" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="F34" s="36"/>
+      <c r="G34" s="49">
+        <v>33</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="46">
+        <v>34</v>
+      </c>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="49">
+        <v>35</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10" ht="26.25" thickBot="1">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="C37" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="46">
+        <v>36</v>
+      </c>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+    </row>
+    <row r="38" spans="1:10" ht="29.25" thickBot="1">
       <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="49">
+        <v>37</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10" ht="153.75" thickBot="1">
       <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="C39" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="46">
+        <v>38</v>
+      </c>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" ht="115.5" thickBot="1">
       <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="C40" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F40" s="36"/>
+      <c r="G40" s="49">
+        <v>39</v>
+      </c>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1">
       <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="46">
+        <v>40</v>
+      </c>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1">
       <c r="A42" s="8">
         <v>41</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="49">
+        <v>41</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+    </row>
+    <row r="43" spans="1:10" ht="51.75" thickBot="1">
       <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="C43" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="46">
+        <v>42</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="J43" s="38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="39" thickBot="1">
       <c r="A44" s="8">
         <v>43</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="49">
+        <v>43</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1">
       <c r="A45" s="8">
         <v>44</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="C45" s="37"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="46">
+        <v>44</v>
+      </c>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1">
       <c r="A46" s="8">
         <v>45</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="49">
+        <v>45</v>
+      </c>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="C47" s="37"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="46">
+        <v>46</v>
+      </c>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:10" ht="26.25" thickBot="1">
       <c r="A48" s="8">
         <v>47</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="C48" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="49">
+        <v>47</v>
+      </c>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="C49" s="37"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="46">
+        <v>48</v>
+      </c>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" ht="115.5" thickBot="1">
       <c r="A50" s="8">
         <v>49</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="C50" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" s="36"/>
+      <c r="G50" s="49">
+        <v>49</v>
+      </c>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1">
       <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E51" s="8"/>
+      <c r="D51" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="46">
+        <v>50</v>
+      </c>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{D29BDF0D-F445-4B65-9135-F889A0BDA130}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5406,11 +6292,11 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" thickBot="1">
@@ -5422,10 +6308,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -5438,10 +6324,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -5454,10 +6340,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -5471,7 +6357,7 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -5495,7 +6381,7 @@
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -5509,7 +6395,7 @@
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -5523,7 +6409,7 @@
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -5537,7 +6423,7 @@
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -5551,7 +6437,7 @@
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -5684,7 +6570,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5696,7 +6582,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5708,7 +6594,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5720,7 +6606,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5732,7 +6618,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5746,7 +6632,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5758,7 +6644,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5770,7 +6656,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
@@ -5782,13 +6668,13 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5799,10 +6685,10 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5814,7 +6700,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="60">
@@ -5826,11 +6712,11 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30">
@@ -5842,13 +6728,13 @@
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
@@ -5861,10 +6747,10 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5876,7 +6762,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
@@ -5889,10 +6775,10 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45">
@@ -5905,10 +6791,10 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
@@ -5921,7 +6807,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -5934,13 +6820,13 @@
         <v>23</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5983,7 +6869,7 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F47" s="16"/>
     </row>
@@ -5994,10 +6880,10 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -6010,10 +6896,10 @@
         <v>4</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>128</v>
@@ -6029,7 +6915,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -6042,7 +6928,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6143,7 +7029,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
@@ -6168,7 +7054,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -6182,7 +7068,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -6196,7 +7082,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -6210,7 +7096,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -6233,10 +7119,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -6490,7 +7376,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F37" s="16"/>
     </row>
@@ -6502,7 +7388,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -6536,7 +7422,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -6560,7 +7446,7 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -6594,7 +7480,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F46" s="16"/>
     </row>
@@ -6618,7 +7504,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F48" s="16"/>
     </row>

--- a/10_Management/Exam_PMP_TangToc_17122018.xlsx
+++ b/10_Management/Exam_PMP_TangToc_17122018.xlsx
@@ -2,36 +2,37 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E2C1A6-5F55-47D8-92E2-6AB474E9D801}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC1C927-CC4C-4D01-9C89-B1B362B9657B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" activeTab="2" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder" sheetId="1" r:id="rId1"/>
     <sheet name="Procurement" sheetId="2" r:id="rId2"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId3"/>
-    <sheet name="scope" sheetId="10" r:id="rId4"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId5"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId6"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId7"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId8"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId9"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId10"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId11"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId12"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId13"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId14"/>
-    <sheet name="Executing" sheetId="4" r:id="rId15"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId16"/>
-    <sheet name="Closing" sheetId="6" r:id="rId17"/>
-    <sheet name="Mock" sheetId="8" r:id="rId18"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId19"/>
+    <sheet name="Closing 1" sheetId="20" r:id="rId3"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId4"/>
+    <sheet name="scope" sheetId="10" r:id="rId5"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId6"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId7"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId8"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId9"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId10"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId11"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId12"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId13"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId14"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId15"/>
+    <sheet name="Executing" sheetId="4" r:id="rId16"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId17"/>
+    <sheet name="Closing" sheetId="6" r:id="rId18"/>
+    <sheet name="Mock" sheetId="8" r:id="rId19"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="321">
   <si>
     <t>No</t>
   </si>
@@ -1043,7 +1044,90 @@
     <t>Note lại để hỏi thêm</t>
   </si>
   <si>
-    <t>Lưu ý: manufacturing a product là ongoing process, not project</t>
+    <t>Lưu ý: manufacturing a product là ongoing process, not project. Lưu ý keyword nếu thay working on bằng developing a new product thì nó là project</t>
+  </si>
+  <si>
+    <t>Không hiểu</t>
+  </si>
+  <si>
+    <t>nắm bắt key word "cross-discliplinary" nghĩa là kỷ luật chéo là có hơn 1 department được sử dụng =&gt; organization là matrix</t>
+  </si>
+  <si>
+    <t>Lưu ý: trong matrix organization thì team luôn report to 2 PM: functional manager và project manager. Functional manager có quyền allocate resource cho dự án. Trong functional organization thì PM có ít quyền hạn hơn matrix organization</t>
+  </si>
+  <si>
+    <t>Note: PMO làm chức năng provide them with the policies, methodologies, and templates for managing projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: in funciton organization PM sẽ least support cho dự án và ít quyền allocate resource. Project expediter and project coodinator là roles Trong weak matrix organization </t>
+  </si>
+  <si>
+    <t>Chưa hiểu bản chất của function organization</t>
+  </si>
+  <si>
+    <t>Note: bản chất của project là temporary và unique. Đối với những business process có tính chất lặp lại repeatable thì sẽ nên retain lại ở function organization</t>
+  </si>
+  <si>
+    <t>Note: PM cần có experience và knowledge</t>
+  </si>
+  <si>
+    <t>bản chất của project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quy tắc của project: temporary. Dự án mà expand thêm duration mới, sponsor mới thì nên tạo thành một project mới </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inform stakeholders of the approved project charter to ensure common
+understanding of the key deliverables, milestones, and their roles and
+responsibilities </t>
+  </si>
+  <si>
+    <t>Hiểu bản chất của project</t>
+  </si>
+  <si>
+    <t>project có beginning and end, unique product or service. Deliverable cần phải done in sequence. Cần xác định done cái trc rồi mới làm cái sau. Project charter for each deliverable is required</t>
+  </si>
+  <si>
+    <t>note: feasibility study address project should be done. Its not purpose team member</t>
+  </si>
+  <si>
+    <t>Note: feasibility analysis of project</t>
+  </si>
+  <si>
+    <t>tìm hiểu value analysis: bỏ ra ít chi phí nhất cho việc đánh giá dự án cho tổ chức</t>
+  </si>
+  <si>
+    <t>Note giải thích: scope is essential as the basis (ước lượng) to plan the project work, schedule, budget and other constraint. Risk cần có plan để giải quyết. Quality effort là critical to customer sattifaction and acceptance . Tất cả những vấn đề này cần input là stakeholders</t>
+  </si>
+  <si>
+    <t>Note: stakeholder determine project scope requirement. Stakeholder ở đây gồm customer, PM, senior, team,…</t>
+  </si>
+  <si>
+    <t>Note: communication management plan và Confirms that the management plan includes the management of team members là hướng dẫn cần để đạt được support project. Về cơ bản là best if the PM là correlates với strategic pllan của organization</t>
+  </si>
+  <si>
+    <t>Role of each stakeholder được determine bởi PM và các stakeholders</t>
+  </si>
+  <si>
+    <t>không đọc kỹ đề</t>
+  </si>
+  <si>
+    <t>BCR: là revenue so với cost và càng lớn càng OK, bé thì loại luôn</t>
+  </si>
+  <si>
+    <t>payback period: thời gian hoàn vốn</t>
+  </si>
+  <si>
+    <t>key word: end-of-phase review meeting giống như administrative closure meeting when a phase of the project is closed out. Cancel dự án lúc này là không thể nên nó khó nhất</t>
+  </si>
+  <si>
+    <t>Note: team cũng là stakeholder</t>
+  </si>
+  <si>
+    <t>éo hiểu tại sao sai</t>
+  </si>
+  <si>
+    <t>note: performance measure thường sẽ nằm trong phần executing hoặc monitor để so sánh thực tế với plan nên nó không nằm trong closure</t>
   </si>
 </sst>
 </file>
@@ -1393,24 +1477,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1495,6 +1561,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1811,6 +1895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1826,356 +1911,356 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="33">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="30"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="33">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="33">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="33">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="33">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="33">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="33">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="24" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="33">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="24" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="33">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="24" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="33">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="33" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="30"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="30"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="30"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="30"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="30"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="30"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="30"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="6:6">
-      <c r="F24" s="30"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="6:6">
-      <c r="F25" s="30"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="6:6">
-      <c r="F26" s="30"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="6:6">
-      <c r="F27" s="30"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="6:6">
-      <c r="F28" s="30"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="6:6">
-      <c r="F29" s="30"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="6:6">
-      <c r="F30" s="30"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" spans="6:6">
-      <c r="F31" s="30"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="6:6">
-      <c r="F32" s="30"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="30"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="6:6">
-      <c r="F34" s="30"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="6:6">
-      <c r="F35" s="30"/>
+      <c r="F35" s="24"/>
     </row>
     <row r="36" spans="6:6">
-      <c r="F36" s="30"/>
+      <c r="F36" s="24"/>
     </row>
     <row r="37" spans="6:6">
-      <c r="F37" s="30"/>
+      <c r="F37" s="24"/>
     </row>
     <row r="38" spans="6:6">
-      <c r="F38" s="30"/>
+      <c r="F38" s="24"/>
     </row>
     <row r="39" spans="6:6">
-      <c r="F39" s="30"/>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="6:6">
-      <c r="F40" s="30"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="6:6">
-      <c r="F41" s="30"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="6:6">
-      <c r="F42" s="30"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="30"/>
+      <c r="F43" s="24"/>
     </row>
     <row r="44" spans="6:6">
-      <c r="F44" s="30"/>
+      <c r="F44" s="24"/>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="30"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="6:6">
-      <c r="F46" s="30"/>
+      <c r="F46" s="24"/>
     </row>
     <row r="47" spans="6:6">
-      <c r="F47" s="30"/>
+      <c r="F47" s="24"/>
     </row>
     <row r="48" spans="6:6">
-      <c r="F48" s="30"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="6:6">
-      <c r="F49" s="30"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="6:6">
-      <c r="F50" s="30"/>
+      <c r="F50" s="24"/>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="30"/>
+      <c r="F51" s="24"/>
     </row>
     <row r="52" spans="6:6">
-      <c r="F52" s="30"/>
+      <c r="F52" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2192,12 +2277,618 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I41" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="45">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="45">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="45">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6" ht="75">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" ht="30">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" ht="120">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:6" ht="60">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6" ht="45">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{46F0CFBB-DBC4-46A9-811C-8D3D8566D698}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{35040A55-7DF6-4483-A66A-E83420658B24}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Executing'!A1" display="Domain" xr:uid="{B419B042-CA3F-4F33-8CAB-BF60702FFC7F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:K6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2205,152 +2896,152 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2368,8 +3059,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2382,231 +3074,225 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -2614,13 +3300,20 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2633,264 +3326,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2908,7 +3457,153 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2921,135 +3616,135 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3066,8 +3761,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3352,8 +4048,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3366,8 +4063,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3380,8 +4078,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3392,28 +4091,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3559,12 +4239,34 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3E9025-2166-405B-928B-811F653123F3}">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3574,7 +4276,9 @@
     <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="7" max="7" width="29.7109375" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
@@ -3605,11 +4309,342 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="75">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="183" customHeight="1">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="28"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26" xr:uid="{097FEF22-7978-412C-80B0-956165398A11}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7, Task 8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26" xr:uid="{E47DA9CB-A0E3-4515-A4DB-18C8E8F8AD1D}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Closing'!A1" display="Domain" xr:uid="{6A058A6A-F992-48DF-9AC0-F4E44A94E717}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="7" max="7" width="29.7109375" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15" t="s">
+        <v>313</v>
+      </c>
       <c r="F2" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3621,7 +4656,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3631,7 +4666,7 @@
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3641,67 +4676,78 @@
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" ht="90">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>312</v>
+      </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" ht="45">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>311</v>
+      </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" ht="105">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>310</v>
+      </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>309</v>
+      </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>308</v>
+      </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -3711,17 +4757,21 @@
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>307</v>
+      </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -3731,24 +4781,41 @@
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" ht="183" customHeight="1">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>303</v>
+      </c>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6">
@@ -3758,27 +4825,37 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>301</v>
+      </c>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="60">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15"/>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>300</v>
+      </c>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="75">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>298</v>
+      </c>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6">
@@ -3791,37 +4868,47 @@
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="45">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>297</v>
+      </c>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="90">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>296</v>
+      </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="45">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="60">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -3871,7 +4958,7 @@
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26" xr:uid="{050BE225-178B-409F-8A12-8704C43FC1BF}">
-      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7, Task 8"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3882,8 +4969,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3902,8 +4990,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4244,8 +5333,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -5222,12 +6312,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5240,7 +6331,7 @@
     <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" thickBot="1">
+    <row r="1" spans="1:10" ht="39" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5254,6 +6345,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5262,24 +6368,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37">
         <v>1</v>
       </c>
-      <c r="H2" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="42" t="s">
+      <c r="H2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="36" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5288,56 +6394,56 @@
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="46">
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="40">
         <v>2</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="49">
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="43">
         <v>3</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="90" thickBot="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="46">
-        <v>4</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="38" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="40">
+        <v>4</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="32" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5346,18 +6452,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="49">
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="43">
         <v>5</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36" t="s">
+      <c r="H6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5366,20 +6472,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="46">
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="40">
         <v>6</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="38" t="s">
+      <c r="H7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="32" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5390,42 +6496,42 @@
       <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="53" t="s">
+      <c r="C8" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="49">
+      <c r="F8" s="30"/>
+      <c r="G8" s="43">
         <v>7</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" ht="93" customHeight="1" thickBot="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="46">
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="40">
         <v>8</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="32" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5434,56 +6540,56 @@
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="49">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="43">
         <v>9</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="J10" s="36"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" ht="29.25" thickBot="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="46">
+      <c r="C11" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="40">
         <v>10</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="51.75" thickBot="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="49">
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="43">
         <v>11</v>
       </c>
-      <c r="H12" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36" t="s">
+      <c r="H12" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5492,22 +6598,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="55" t="s">
+      <c r="C13" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="46">
+      <c r="F13" s="32"/>
+      <c r="G13" s="40">
         <v>12</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38" t="s">
+      <c r="H13" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5516,56 +6622,56 @@
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="49">
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="43">
         <v>13</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="46">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="40">
         <v>14</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" ht="86.25" thickBot="1">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="57" t="s">
+      <c r="C16" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="49">
+      <c r="F16" s="30"/>
+      <c r="G16" s="43">
         <v>15</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="30" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5574,82 +6680,82 @@
         <v>16</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="46">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="40">
         <v>16</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="49">
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="43">
         <v>17</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="46">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="40">
         <v>18</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="49">
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="43">
         <v>19</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" ht="192" thickBot="1">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="46">
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="40">
         <v>20</v>
       </c>
-      <c r="H21" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38" t="s">
+      <c r="H21" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5658,56 +6764,56 @@
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="49">
+      <c r="E22" s="42"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="43">
         <v>21</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="46">
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="40">
         <v>22</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" ht="179.25" thickBot="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="49">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="43">
         <v>23</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="30" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5716,22 +6822,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="59" t="s">
+      <c r="C25" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="46">
+      <c r="E25" s="39"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="40">
         <v>24</v>
       </c>
-      <c r="H25" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38" t="s">
+      <c r="H25" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5740,64 +6846,64 @@
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="49">
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="43">
         <v>25</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:10" ht="51.75" thickBot="1">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="51" t="s">
+      <c r="C27" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="46">
+      <c r="E27" s="39"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="40">
         <v>26</v>
       </c>
-      <c r="H27" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="38" t="s">
+      <c r="H27" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="J27" s="38"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" ht="39" thickBot="1">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="58" t="s">
+      <c r="C28" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="49">
+      <c r="E28" s="42"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="43">
         <v>27</v>
       </c>
-      <c r="H28" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="36" t="s">
+      <c r="H28" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="J28" s="36" t="s">
+      <c r="J28" s="30" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5806,24 +6912,24 @@
         <v>28</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38" t="s">
+      <c r="C29" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="46">
+      <c r="F29" s="32"/>
+      <c r="G29" s="40">
         <v>28</v>
       </c>
-      <c r="H29" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="38" t="s">
+      <c r="H29" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="32" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5832,18 +6938,18 @@
         <v>29</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="49">
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="43">
         <v>29</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36" t="s">
+      <c r="H30" s="30"/>
+      <c r="I30" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="J30" s="36" t="s">
+      <c r="J30" s="30" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5852,38 +6958,38 @@
         <v>30</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="46">
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="40">
         <v>30</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10" ht="179.25" thickBot="1">
       <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="49">
+      <c r="C32" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="43">
         <v>31</v>
       </c>
-      <c r="H32" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="36" t="s">
+      <c r="H32" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="30" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5892,204 +6998,204 @@
         <v>32</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="46">
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="40">
         <v>32</v>
       </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" ht="39" thickBot="1">
       <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36" t="s">
+      <c r="C34" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="49">
+      <c r="F34" s="30"/>
+      <c r="G34" s="43">
         <v>33</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="46">
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="40">
         <v>34</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="49">
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="43">
         <v>35</v>
       </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="1:10" ht="26.25" thickBot="1">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38" t="s">
+      <c r="C37" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="46">
+      <c r="F37" s="32"/>
+      <c r="G37" s="40">
         <v>36</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" ht="29.25" thickBot="1">
       <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="57" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="49">
+      <c r="F38" s="30"/>
+      <c r="G38" s="43">
         <v>37</v>
       </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="1:10" ht="153.75" thickBot="1">
       <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38" t="s">
+      <c r="C39" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="46">
+      <c r="F39" s="32"/>
+      <c r="G39" s="40">
         <v>38</v>
       </c>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" ht="115.5" thickBot="1">
       <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="36" t="s">
+      <c r="C40" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="49">
+      <c r="F40" s="30"/>
+      <c r="G40" s="43">
         <v>39</v>
       </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1">
       <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="46">
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="40">
         <v>40</v>
       </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
       <c r="A42" s="8">
         <v>41</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="49">
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="43">
         <v>41</v>
       </c>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="1:10" ht="51.75" thickBot="1">
       <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38" t="s">
+      <c r="C43" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="46">
+      <c r="F43" s="32"/>
+      <c r="G43" s="40">
         <v>42</v>
       </c>
-      <c r="H43" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="38" t="s">
+      <c r="H43" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="J43" s="38" t="s">
+      <c r="J43" s="32" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6098,20 +7204,20 @@
         <v>43</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="49">
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="43">
         <v>43</v>
       </c>
-      <c r="H44" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="36" t="s">
+      <c r="H44" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="J44" s="30" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6120,124 +7226,124 @@
         <v>44</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="46">
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="40">
         <v>44</v>
       </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1">
       <c r="A46" s="8">
         <v>45</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="49">
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="43">
         <v>45</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="46">
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="40">
         <v>46</v>
       </c>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" ht="26.25" thickBot="1">
       <c r="A48" s="8">
         <v>47</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36" t="s">
+      <c r="C48" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="49">
+      <c r="F48" s="30"/>
+      <c r="G48" s="43">
         <v>47</v>
       </c>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="46">
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="40">
         <v>48</v>
       </c>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:10" ht="115.5" thickBot="1">
       <c r="A50" s="8">
         <v>49</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36" t="s">
+      <c r="C50" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="F50" s="36"/>
-      <c r="G50" s="49">
+      <c r="F50" s="30"/>
+      <c r="G50" s="43">
         <v>49</v>
       </c>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1">
       <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="46">
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="40">
         <v>50</v>
       </c>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6245,8 +7351,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6946,610 +8053,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
-  <dimension ref="A1:F51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" ht="45">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" ht="45">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" ht="45">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" ht="45">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" ht="75">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="30">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" ht="120">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" ht="60">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" ht="45">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{46F0CFBB-DBC4-46A9-811C-8D3D8566D698}">
-      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{35040A55-7DF6-4483-A66A-E83420658B24}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Executing'!A1" display="Domain" xr:uid="{B419B042-CA3F-4F33-8CAB-BF60702FFC7F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/10_Management/Exam_PMP_TangToc_17122018.xlsx
+++ b/10_Management/Exam_PMP_TangToc_17122018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC1C927-CC4C-4D01-9C89-B1B362B9657B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2749C097-A420-4878-870E-BF216AE1BC9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" activeTab="2" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" activeTab="9" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="339">
   <si>
     <t>No</t>
   </si>
@@ -778,9 +778,6 @@
     <t>Sử dụng wbs để nói chuyện với stakeholder (include customer)</t>
   </si>
   <si>
-    <t>project scope statement: phần lớn công việc được quyết định bởi project scope statement nên bất kỳ sự thiếu chính xác nào của tài liệu sẽ dẫn tới việc hiểu sai =&gt; imprecise language (ngôn ngữ là quan trọng)</t>
-  </si>
-  <si>
     <t>Perform project assessment based upon available information, lessons
 learned from previous projects, and meetings with relevant stakeholders in
 order to support the evaluation of the feasibility of new products or services
@@ -1128,6 +1125,63 @@
   </si>
   <si>
     <t>note: performance measure thường sẽ nằm trong phần executing hoặc monitor để so sánh thực tế với plan nên nó không nằm trong closure</t>
+  </si>
+  <si>
+    <t>Cần vẽ PDM ra sẽ ra kết quả</t>
+  </si>
+  <si>
+    <t>project scope statement: phần lớn công việc được quyết định bởi project scope statement nên bất kỳ sự thiếu chính xác nào của tài liệu sẽ dẫn tới việc hiểu sai =&gt; imprecise language (ngôn ngữ là quan trọng). Project scope statement là chốt cái nào làm, không làm với khách hàng</t>
+  </si>
+  <si>
+    <t>Nên review lại project scope statement trước để xác định xem vấn đề là gì</t>
+  </si>
+  <si>
+    <t>hỏi thêm thầy</t>
+  </si>
+  <si>
+    <t>Note: WBS để detail và total project scope. Tất cả work phải dc done trc khi complete project</t>
+  </si>
+  <si>
+    <t>Note: The numbering system là sẽ nói đến wbs. Nó giúp locate element in wbs directory (xác định phần tử)</t>
+  </si>
+  <si>
+    <t>Hiểu nhầm process</t>
+  </si>
+  <si>
+    <t>phần này nằm trong develop team, manage team nên cần phải có skill Active listening, negotiating, and political awareness</t>
+  </si>
+  <si>
+    <t>plan risk responses, implement risk responses, monitor risks</t>
+  </si>
+  <si>
+    <t>RFP: request for proposals: đề nghị mời thầu. List of required report and information about payment ussuall included in contract. Trong văn cảnh này cần có procurement performance review sẽ included in the contract để nói chuyện với nhau</t>
+  </si>
+  <si>
+    <t>wbs là tool tracking cho scope</t>
+  </si>
+  <si>
+    <t>Note: not advantage of centralized contracting là loyal to the project. Môi trường mua sắm tập trung thì sẽ expertise hơn</t>
+  </si>
+  <si>
+    <t>Không nắm bản chất PM</t>
+  </si>
+  <si>
+    <t>role PM là intergrantion, ensure the various project element are properly coordinated</t>
+  </si>
+  <si>
+    <t>Note: periodically review the list of project requirement, nó giúp discover errors and changes</t>
+  </si>
+  <si>
+    <t>the first understanding, cần phải hiểu lý do tại sao customer not happy, then meet team and determine options</t>
+  </si>
+  <si>
+    <t>vấp mấy lần rồi</t>
+  </si>
+  <si>
+    <t>không hiểu lắm</t>
+  </si>
+  <si>
+    <t>bị change nhiều lần deliverable, schedule nhiều lần thay đổi chủ yếu là do lack of clear direction from the sponsor</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1998,7 @@
         <v>138</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -1966,7 +2020,7 @@
         <v>128</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -2020,7 +2074,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="24"/>
@@ -2034,16 +2088,16 @@
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>150</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>241</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2058,10 +2112,10 @@
         <v>128</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2076,10 +2130,10 @@
         <v>150</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2098,10 +2152,10 @@
         <v>138</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>245</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2281,8 +2335,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2460,7 +2514,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
@@ -2565,54 +2621,78 @@
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="45">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15"/>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>338</v>
+      </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="45">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>335</v>
+      </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="45">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>334</v>
+      </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>331</v>
+      </c>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
@@ -2622,38 +2702,56 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>330</v>
+      </c>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="90">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>329</v>
+      </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="30">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="E31" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45">
       <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
+      <c r="C32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8">
@@ -2665,37 +2763,47 @@
       <c r="E33" s="15"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="45">
       <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="45">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>324</v>
+      </c>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="30">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="15"/>
+      <c r="C36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>322</v>
+      </c>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" ht="75">
+    <row r="37" spans="1:6" ht="105">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2705,9 +2813,11 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="16"/>
+        <v>321</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="8">
@@ -2770,9 +2880,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
         <v>215</v>
@@ -2786,7 +2894,9 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="15"/>
+      <c r="E44" s="15" t="s">
+        <v>320</v>
+      </c>
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6">
@@ -2880,6 +2990,7 @@
     <hyperlink ref="F1" location="'Domain-Executing'!A1" display="Domain" xr:uid="{B419B042-CA3F-4F33-8CAB-BF60702FFC7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2897,7 +3008,7 @@
         <v>126</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
@@ -2914,7 +3025,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -2931,7 +3042,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
@@ -2948,7 +3059,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -2965,7 +3076,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -2982,7 +3093,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -2999,7 +3110,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
@@ -3016,7 +3127,7 @@
         <v>140</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="55"/>
@@ -3031,7 +3142,7 @@
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
       <c r="B9" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
@@ -3293,6 +3404,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -3300,12 +3417,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3617,7 +3728,7 @@
         <v>126</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
@@ -3634,7 +3745,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -3651,7 +3762,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
@@ -3668,7 +3779,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -3685,7 +3796,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -3702,7 +3813,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -3719,7 +3830,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
@@ -3734,7 +3845,7 @@
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
@@ -4265,7 +4376,7 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -4350,10 +4461,10 @@
         <v>60</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>320</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -4376,7 +4487,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -4390,7 +4501,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -4402,7 +4513,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F10" s="28"/>
     </row>
@@ -4415,10 +4526,10 @@
         <v>60</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="F11" s="28"/>
     </row>
@@ -4638,7 +4749,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>136</v>
@@ -4684,7 +4795,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -4705,7 +4816,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -4717,7 +4828,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -4731,7 +4842,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -4743,7 +4854,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -4767,7 +4878,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -4790,16 +4901,16 @@
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>305</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>306</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>140</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45">
@@ -4811,10 +4922,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -4826,7 +4937,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -4839,10 +4950,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>300</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -4854,7 +4965,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -4876,7 +4987,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -4888,7 +4999,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -4901,10 +5012,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -4916,7 +5027,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -4929,10 +5040,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -4946,7 +5057,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>136</v>
@@ -6373,7 +6484,7 @@
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="37">
@@ -6383,10 +6494,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="36" t="s">
         <v>248</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
@@ -6441,10 +6552,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>250</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51.75" thickBot="1">
@@ -6464,7 +6575,7 @@
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="204.75" thickBot="1">
@@ -6483,10 +6594,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="J7" s="32" t="s">
         <v>253</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45.75" thickBot="1">
@@ -6529,10 +6640,10 @@
         <v>60</v>
       </c>
       <c r="I9" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>255</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39" thickBot="1">
@@ -6551,7 +6662,7 @@
         <v>60</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -6590,7 +6701,7 @@
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="157.5" thickBot="1">
@@ -6603,7 +6714,7 @@
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="40">
@@ -6614,7 +6725,7 @@
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
@@ -6659,7 +6770,7 @@
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="43">
@@ -6669,10 +6780,10 @@
         <v>60</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
@@ -6756,7 +6867,7 @@
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
@@ -6768,7 +6879,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="30"/>
@@ -6814,7 +6925,7 @@
         <v>69</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="51.75" thickBot="1">
@@ -6826,7 +6937,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="32"/>
@@ -6838,7 +6949,7 @@
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
@@ -6877,7 +6988,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -6890,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="30"/>
@@ -6901,10 +7012,10 @@
         <v>4</v>
       </c>
       <c r="I28" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" s="30" t="s">
         <v>269</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="204.75" thickBot="1">
@@ -6917,7 +7028,7 @@
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="40">
@@ -6927,10 +7038,10 @@
         <v>4</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="255.75" thickBot="1">
@@ -6947,10 +7058,10 @@
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" s="30" t="s">
         <v>273</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
@@ -6987,10 +7098,10 @@
         <v>4</v>
       </c>
       <c r="I32" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" s="30" t="s">
         <v>275</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1">
@@ -7019,7 +7130,7 @@
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="43">
@@ -7071,7 +7182,7 @@
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="40">
@@ -7089,7 +7200,7 @@
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
       <c r="E38" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="43">
@@ -7109,7 +7220,7 @@
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="40">
@@ -7128,10 +7239,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" s="30" t="s">
         <v>281</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>282</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="43">
@@ -7183,7 +7294,7 @@
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="40">
@@ -7193,10 +7304,10 @@
         <v>4</v>
       </c>
       <c r="I43" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J43" s="32" t="s">
         <v>284</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="39" thickBot="1">
@@ -7215,10 +7326,10 @@
         <v>4</v>
       </c>
       <c r="I44" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" s="30" t="s">
         <v>286</v>
-      </c>
-      <c r="J44" s="30" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1">
@@ -7279,7 +7390,7 @@
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="43">
@@ -7315,7 +7426,7 @@
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="43">
@@ -7334,7 +7445,7 @@
         <v>60</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>

--- a/10_Management/Exam_PMP_TangToc_17122018.xlsx
+++ b/10_Management/Exam_PMP_TangToc_17122018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2749C097-A420-4878-870E-BF216AE1BC9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8F697A-3114-4ADB-9619-E87FDD1ADA31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" activeTab="9" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="3" activeTab="9" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="351">
   <si>
     <t>No</t>
   </si>
@@ -742,22 +742,13 @@
     <t>seller đòi tăng giá, thì cần đàm phán để giảm giá=&gt; nằm trong conduct procurement</t>
   </si>
   <si>
-    <t>Cảnh cáo lần 1: informal verbal, lần 2 là formal verbal</t>
-  </si>
-  <si>
     <t>Note: việc negotiate thì cần lưu ý đầu tiên là có tuân thủ ethical không, ràng buộc với rule của công ty không, cuối cùng là quality</t>
   </si>
   <si>
-    <t xml:space="preserve">Đầu tiên là phải understanding </t>
-  </si>
-  <si>
     <t>You need to analyze the problems and identify what caused them before taking any other action.</t>
   </si>
   <si>
     <t>phần này liên quan tới intergrated Integration refers to combining activities, not team members.</t>
-  </si>
-  <si>
-    <t>khong hieu cau hoi</t>
   </si>
   <si>
     <t>Note: xung đột về tính cách là ít gặp nhất (personality). Câu này cần đọc hiểu tiếng anh tốt</t>
@@ -1038,9 +1029,6 @@
     <t>lưu ý: type of organization ảnh hưởng trực tiếp đến sự thành công của dự án, việc tổ chức phân cấp thì có vẻ không hiệu quả</t>
   </si>
   <si>
-    <t>Note lại để hỏi thêm</t>
-  </si>
-  <si>
     <t>Lưu ý: manufacturing a product là ongoing process, not project. Lưu ý keyword nếu thay working on bằng developing a new product thì nó là project</t>
   </si>
   <si>
@@ -1082,9 +1070,6 @@
     <t>Hiểu bản chất của project</t>
   </si>
   <si>
-    <t>project có beginning and end, unique product or service. Deliverable cần phải done in sequence. Cần xác định done cái trc rồi mới làm cái sau. Project charter for each deliverable is required</t>
-  </si>
-  <si>
     <t>note: feasibility study address project should be done. Its not purpose team member</t>
   </si>
   <si>
@@ -1115,9 +1100,6 @@
     <t>payback period: thời gian hoàn vốn</t>
   </si>
   <si>
-    <t>key word: end-of-phase review meeting giống như administrative closure meeting when a phase of the project is closed out. Cancel dự án lúc này là không thể nên nó khó nhất</t>
-  </si>
-  <si>
     <t>Note: team cũng là stakeholder</t>
   </si>
   <si>
@@ -1182,13 +1164,71 @@
   </si>
   <si>
     <t>bị change nhiều lần deliverable, schedule nhiều lần thay đổi chủ yếu là do lack of clear direction from the sponsor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closing project thì cần phải có lesson learn phải complete </t>
+  </si>
+  <si>
+    <t>key word: end-of-phase review meeting giống như administrative closure meeting when a phase of the project is closed out. Cancel dự án lúc này là không thể nên nó khó nhất. Nguy hiểm nhất là cancel dự án</t>
+  </si>
+  <si>
+    <t>cần nhớ role PM là theo chiến lược cong ty</t>
+  </si>
+  <si>
+    <t>value analysis không có khái niệm về, k dugf để đánh giá</t>
+  </si>
+  <si>
+    <t>Đang trao đổi cho mỗi ông 1 ý, tranh luận để khởi tạo dự án</t>
+  </si>
+  <si>
+    <t>nghiên cứu tính khả thi của dự án</t>
+  </si>
+  <si>
+    <t>bản chất của dự án, những cái lặp đi lặp lại thì không phải là dự án</t>
+  </si>
+  <si>
+    <t>note: keyword many different deliverable -&gt; tách ra thành nhiều project-&gt; project charter</t>
+  </si>
+  <si>
+    <t>project có beginning and end, unique product or service. Deliverable cần phải done in sequence. Cần xác định done cái trc rồi mới làm cái sau. Project charter for each deliverable is required
+note: keyword many different deliverable -&gt; tách ra thành nhiều project-&gt; project charter</t>
+  </si>
+  <si>
+    <t> working on manufacturing</t>
+  </si>
+  <si>
+    <t>Note lại để hỏi thêm. Cách tiếp cận với việc tổ chức phân cấp là không hiệu quả</t>
+  </si>
+  <si>
+    <t>thằng PM đc involve vào quá trình tạo create project charter</t>
+  </si>
+  <si>
+    <t>Asking the customer to try to get approvals in on time is smoothing. Meeting with the customer to determine a new due date is problem-solving. Demanding the approvals today is forcing. Postponing a decision reflects the conflict resolution technique of withdrawal.</t>
+  </si>
+  <si>
+    <t>Cảnh cáo lần 1: informal verbal, lần 2 là formal verbal. Với khách hàng thì là formal written</t>
+  </si>
+  <si>
+    <t>Đầu tiên là phải understanding, giới thiệu vai trò trách nhiệm dự án</t>
+  </si>
+  <si>
+    <t>concern: ưu tiên đầu tiên là legal sau đó đến qualify. 
+Although they use tough negotiators, this company has consistently delivered on their commitments on time and within the agreed-upon cost: Mặc dù họ sử dụng các nhà đàm phán cứng rắn, công ty này đã liên tục thực hiện các cam kết đúng hạn và trong chi phí đã thỏa thuận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+key word: cohesive whole. Đặt tất cả các phần của một dự án thành một tổng thể gắn kết.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khong hieu cau hoi
+supposed: giả sử </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,6 +1285,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1469,7 +1515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1634,6 +1680,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1998,7 +2045,7 @@
         <v>138</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -2020,7 +2067,7 @@
         <v>128</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -2074,7 +2121,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="24"/>
@@ -2088,16 +2135,16 @@
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>150</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2112,10 +2159,10 @@
         <v>128</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2130,10 +2177,10 @@
         <v>150</v>
       </c>
       <c r="G10" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>240</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2152,10 +2199,10 @@
         <v>138</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2335,8 +2382,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2393,17 +2440,19 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="105">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>345</v>
+      </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2412,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>206</v>
+        <v>346</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
@@ -2427,7 +2476,7 @@
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="135">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2435,13 +2484,15 @@
       <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="E7" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2451,7 +2502,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -2465,11 +2516,11 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2477,9 +2528,11 @@
       <c r="C10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="E10" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -2502,10 +2555,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -2630,10 +2683,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -2646,10 +2699,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -2661,7 +2714,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -2674,10 +2727,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>128</v>
@@ -2691,7 +2744,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -2703,7 +2756,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -2717,7 +2770,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -2729,7 +2782,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="15" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>134</v>
@@ -2744,10 +2797,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>128</v>
@@ -2771,7 +2824,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -2783,7 +2836,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -2796,10 +2849,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F36" s="16"/>
     </row>
@@ -2813,7 +2866,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>128</v>
@@ -2827,7 +2880,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -2861,7 +2914,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -2883,7 +2936,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -2895,7 +2948,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -2919,7 +2972,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F46" s="16"/>
     </row>
@@ -2943,7 +2996,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -3008,7 +3061,7 @@
         <v>126</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
@@ -3025,7 +3078,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -3042,7 +3095,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
@@ -3059,7 +3112,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -3076,7 +3129,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -3093,7 +3146,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -3110,7 +3163,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
@@ -3127,7 +3180,7 @@
         <v>140</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="55"/>
@@ -3142,7 +3195,7 @@
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
       <c r="B9" s="57" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
@@ -3404,12 +3457,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -3417,6 +3464,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3728,7 +3781,7 @@
         <v>126</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
@@ -3745,7 +3798,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -3762,7 +3815,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
@@ -3779,7 +3832,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -3796,7 +3849,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -3813,7 +3866,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -3830,7 +3883,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
@@ -3845,7 +3898,7 @@
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="57" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
@@ -4376,8 +4429,8 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4422,14 +4475,16 @@
       <c r="E2" s="15"/>
       <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>333</v>
+      </c>
       <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6">
@@ -4461,10 +4516,10 @@
         <v>60</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -4487,7 +4542,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -4501,7 +4556,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -4513,7 +4568,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F10" s="28"/>
     </row>
@@ -4526,10 +4581,10 @@
         <v>60</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F11" s="28"/>
     </row>
@@ -4568,9 +4623,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6">
@@ -4578,8 +4637,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="E16" s="15"/>
       <c r="F16" s="28"/>
     </row>
@@ -4598,7 +4661,9 @@
         <v>17</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15"/>
       <c r="F18" s="28"/>
@@ -4706,7 +4771,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4749,7 +4814,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>136</v>
@@ -4793,9 +4858,11 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="E6" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -4816,7 +4883,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -4828,7 +4895,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -4840,9 +4907,11 @@
       <c r="C10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="E10" s="15" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -4854,17 +4923,19 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>337</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
     </row>
@@ -4876,20 +4947,23 @@
       <c r="C13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="E13" s="15" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="183" customHeight="1">
@@ -4901,16 +4975,16 @@
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>140</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45">
@@ -4922,10 +4996,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -4937,7 +5011,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -4950,10 +5024,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -4965,7 +5039,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -4987,7 +5061,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -4999,7 +5073,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -5012,10 +5086,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -5025,9 +5099,11 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="60" t="s">
+        <v>342</v>
+      </c>
       <c r="E24" s="15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -5040,10 +5116,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -5055,9 +5131,11 @@
       <c r="C26" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="E26" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>136</v>
@@ -6484,7 +6562,7 @@
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="37">
@@ -6494,10 +6572,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
@@ -6552,10 +6630,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51.75" thickBot="1">
@@ -6575,7 +6653,7 @@
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="204.75" thickBot="1">
@@ -6594,10 +6672,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45.75" thickBot="1">
@@ -6640,10 +6718,10 @@
         <v>60</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39" thickBot="1">
@@ -6662,7 +6740,7 @@
         <v>60</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -6701,7 +6779,7 @@
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="157.5" thickBot="1">
@@ -6714,7 +6792,7 @@
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="49" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="40">
@@ -6725,7 +6803,7 @@
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
@@ -6770,7 +6848,7 @@
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="51" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="43">
@@ -6780,10 +6858,10 @@
         <v>60</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
@@ -6867,7 +6945,7 @@
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="32" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
@@ -6879,7 +6957,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="30"/>
@@ -6925,7 +7003,7 @@
         <v>69</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="51.75" thickBot="1">
@@ -6937,7 +7015,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="32"/>
@@ -6949,7 +7027,7 @@
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
@@ -6988,7 +7066,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -7001,7 +7079,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="30"/>
@@ -7012,10 +7090,10 @@
         <v>4</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="204.75" thickBot="1">
@@ -7028,7 +7106,7 @@
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="40">
@@ -7038,10 +7116,10 @@
         <v>4</v>
       </c>
       <c r="I29" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" s="32" t="s">
         <v>268</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="255.75" thickBot="1">
@@ -7058,10 +7136,10 @@
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
@@ -7098,10 +7176,10 @@
         <v>4</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1">
@@ -7130,7 +7208,7 @@
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="43">
@@ -7182,7 +7260,7 @@
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="40">
@@ -7200,7 +7278,7 @@
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
       <c r="E38" s="51" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="43">
@@ -7220,7 +7298,7 @@
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="40">
@@ -7239,10 +7317,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="43">
@@ -7294,7 +7372,7 @@
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="40">
@@ -7304,10 +7382,10 @@
         <v>4</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="39" thickBot="1">
@@ -7326,10 +7404,10 @@
         <v>4</v>
       </c>
       <c r="I44" s="30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J44" s="30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1">
@@ -7390,7 +7468,7 @@
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="43">
@@ -7426,7 +7504,7 @@
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="43">
@@ -7445,7 +7523,7 @@
         <v>60</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>

--- a/10_Management/Exam_PMP_TangToc_17122018.xlsx
+++ b/10_Management/Exam_PMP_TangToc_17122018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8F697A-3114-4ADB-9619-E87FDD1ADA31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0825E2-7004-4753-A4BA-292A9F2F493B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="3" activeTab="9" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="353">
   <si>
     <t>No</t>
   </si>
@@ -1222,6 +1222,12 @@
   <si>
     <t xml:space="preserve">khong hieu cau hoi
 supposed: giả sử </t>
+  </si>
+  <si>
+    <t>mày đang ở giữa dự án sửa một product đã tồn tại khi mà nguồn lực như đã hứa đang available. Liên quan tới plan đang cần sớm. Việc không available này ảnh hưởng tới timelines và project. Làm gì là tốt nhất?</t>
+  </si>
+  <si>
+    <t>crash hoặc replanning là cần thiết để delay vấn đề. Thay vào đó nên tránh bằng việc show vấn đề</t>
   </si>
 </sst>
 </file>
@@ -1662,6 +1668,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1680,7 +1687,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2382,8 +2388,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2562,7 +2568,7 @@
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="90">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2570,8 +2576,12 @@
       <c r="C13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>352</v>
+      </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6">
@@ -3060,152 +3070,152 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3238,225 +3248,231 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -3464,12 +3480,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3490,120 +3500,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3635,120 +3645,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3780,135 +3790,135 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5099,7 +5109,7 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="54" t="s">
         <v>342</v>
       </c>
       <c r="E24" s="15" t="s">
